--- a/data/158/MOF/TRADE/COUN/ASEAN.xlsx
+++ b/data/158/MOF/TRADE/COUN/ASEAN.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:SX23"/>
+  <dimension ref="A1:TJ23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2953,6 +2953,66 @@
           <t>2021/12</t>
         </is>
       </c>
+      <c r="SY1" s="1" t="inlineStr">
+        <is>
+          <t>2022/01</t>
+        </is>
+      </c>
+      <c r="SZ1" s="1" t="inlineStr">
+        <is>
+          <t>2022/02</t>
+        </is>
+      </c>
+      <c r="TA1" s="1" t="inlineStr">
+        <is>
+          <t>2022/03</t>
+        </is>
+      </c>
+      <c r="TB1" s="1" t="inlineStr">
+        <is>
+          <t>2022/04</t>
+        </is>
+      </c>
+      <c r="TC1" s="1" t="inlineStr">
+        <is>
+          <t>2022/05</t>
+        </is>
+      </c>
+      <c r="TD1" s="1" t="inlineStr">
+        <is>
+          <t>2022/06</t>
+        </is>
+      </c>
+      <c r="TE1" s="1" t="inlineStr">
+        <is>
+          <t>2022/07</t>
+        </is>
+      </c>
+      <c r="TF1" s="1" t="inlineStr">
+        <is>
+          <t>2022/08</t>
+        </is>
+      </c>
+      <c r="TG1" s="1" t="inlineStr">
+        <is>
+          <t>2022/09</t>
+        </is>
+      </c>
+      <c r="TH1" s="1" t="inlineStr">
+        <is>
+          <t>2022/10</t>
+        </is>
+      </c>
+      <c r="TI1" s="1" t="inlineStr">
+        <is>
+          <t>2022/11</t>
+        </is>
+      </c>
+      <c r="TJ1" s="1" t="inlineStr">
+        <is>
+          <t>2022/12</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -4478,40 +4538,76 @@
         <v>945678057</v>
       </c>
       <c r="SM2" t="n">
-        <v>860754944</v>
+        <v>860619978</v>
       </c>
       <c r="SN2" t="n">
-        <v>920732405</v>
+        <v>920812409</v>
       </c>
       <c r="SO2" t="n">
-        <v>1084677962</v>
+        <v>1084494459</v>
       </c>
       <c r="SP2" t="n">
-        <v>1060250139</v>
+        <v>1060268422</v>
       </c>
       <c r="SQ2" t="n">
-        <v>954231063</v>
+        <v>954229914</v>
       </c>
       <c r="SR2" t="n">
-        <v>1048150988</v>
+        <v>1048442841</v>
       </c>
       <c r="SS2" t="n">
-        <v>1116680081</v>
+        <v>1116708891</v>
       </c>
       <c r="ST2" t="n">
-        <v>948612274</v>
+        <v>948541859</v>
       </c>
       <c r="SU2" t="n">
-        <v>1071922649</v>
+        <v>1071894407</v>
       </c>
       <c r="SV2" t="n">
-        <v>1089597053</v>
+        <v>1089480012</v>
       </c>
       <c r="SW2" t="n">
-        <v>1155845682</v>
+        <v>1155846963</v>
       </c>
       <c r="SX2" t="n">
-        <v>1149618296</v>
+        <v>1149617120</v>
+      </c>
+      <c r="SY2" t="n">
+        <v>994171928</v>
+      </c>
+      <c r="SZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -6038,40 +6134,76 @@
         <v>933371357</v>
       </c>
       <c r="SM3" t="n">
-        <v>923152214</v>
+        <v>928081927</v>
       </c>
       <c r="SN3" t="n">
-        <v>949624367</v>
+        <v>954051622</v>
       </c>
       <c r="SO3" t="n">
-        <v>1109424206</v>
+        <v>1113392987</v>
       </c>
       <c r="SP3" t="n">
-        <v>1016621622</v>
+        <v>1022613232</v>
       </c>
       <c r="SQ3" t="n">
-        <v>911841133</v>
+        <v>915996021</v>
       </c>
       <c r="SR3" t="n">
-        <v>1005170536</v>
+        <v>1007683087</v>
       </c>
       <c r="SS3" t="n">
-        <v>1049433572</v>
+        <v>1051033344</v>
       </c>
       <c r="ST3" t="n">
-        <v>1055720309</v>
+        <v>1058669864</v>
       </c>
       <c r="SU3" t="n">
-        <v>1014131715</v>
+        <v>1016217272</v>
       </c>
       <c r="SV3" t="n">
-        <v>1029814374</v>
+        <v>1030689747</v>
       </c>
       <c r="SW3" t="n">
-        <v>1152912350</v>
+        <v>1152814899</v>
       </c>
       <c r="SX3" t="n">
-        <v>1213311019</v>
+        <v>1217557204</v>
+      </c>
+      <c r="SY3" t="n">
+        <v>1256088083</v>
+      </c>
+      <c r="SZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -7598,40 +7730,76 @@
         <v>176811237</v>
       </c>
       <c r="SM4" t="n">
-        <v>138856221</v>
+        <v>138852595</v>
       </c>
       <c r="SN4" t="n">
-        <v>148693455</v>
+        <v>148674234</v>
       </c>
       <c r="SO4" t="n">
-        <v>179637909</v>
+        <v>179608846</v>
       </c>
       <c r="SP4" t="n">
-        <v>192131093</v>
+        <v>192138639</v>
       </c>
       <c r="SQ4" t="n">
-        <v>165720774</v>
+        <v>165742125</v>
       </c>
       <c r="SR4" t="n">
-        <v>182725135</v>
+        <v>182694659</v>
       </c>
       <c r="SS4" t="n">
-        <v>191385671</v>
+        <v>191375549</v>
       </c>
       <c r="ST4" t="n">
-        <v>140947572</v>
+        <v>140943969</v>
       </c>
       <c r="SU4" t="n">
-        <v>168297749</v>
+        <v>168302437</v>
       </c>
       <c r="SV4" t="n">
-        <v>177692902</v>
+        <v>177695109</v>
       </c>
       <c r="SW4" t="n">
         <v>201270727</v>
       </c>
       <c r="SX4" t="n">
-        <v>209502477</v>
+        <v>209509389</v>
+      </c>
+      <c r="SY4" t="n">
+        <v>139833973</v>
+      </c>
+      <c r="SZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -9158,40 +9326,76 @@
         <v>200866478</v>
       </c>
       <c r="SM5" t="n">
-        <v>208889143</v>
+        <v>209896214</v>
       </c>
       <c r="SN5" t="n">
-        <v>193479268</v>
+        <v>193580944</v>
       </c>
       <c r="SO5" t="n">
-        <v>220141937</v>
+        <v>220311771</v>
       </c>
       <c r="SP5" t="n">
-        <v>227085999</v>
+        <v>227328674</v>
       </c>
       <c r="SQ5" t="n">
-        <v>192210991</v>
+        <v>192307071</v>
       </c>
       <c r="SR5" t="n">
-        <v>213708524</v>
+        <v>213869767</v>
       </c>
       <c r="SS5" t="n">
-        <v>226167853</v>
+        <v>226268283</v>
       </c>
       <c r="ST5" t="n">
-        <v>195656784</v>
+        <v>195717295</v>
       </c>
       <c r="SU5" t="n">
-        <v>195085708</v>
+        <v>195233975</v>
       </c>
       <c r="SV5" t="n">
-        <v>176006095</v>
+        <v>175953520</v>
       </c>
       <c r="SW5" t="n">
-        <v>230011773</v>
+        <v>229983946</v>
       </c>
       <c r="SX5" t="n">
-        <v>243365418</v>
+        <v>244073810</v>
+      </c>
+      <c r="SY5" t="n">
+        <v>261876101</v>
+      </c>
+      <c r="SZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -10718,40 +10922,76 @@
         <v>273766267</v>
       </c>
       <c r="SM6" t="n">
-        <v>262687275</v>
+        <v>262685849</v>
       </c>
       <c r="SN6" t="n">
-        <v>281551165</v>
+        <v>281552374</v>
       </c>
       <c r="SO6" t="n">
-        <v>305340805</v>
+        <v>305362386</v>
       </c>
       <c r="SP6" t="n">
-        <v>313742640</v>
+        <v>313751840</v>
       </c>
       <c r="SQ6" t="n">
-        <v>268218261</v>
+        <v>268223161</v>
       </c>
       <c r="SR6" t="n">
-        <v>308910227</v>
+        <v>308929610</v>
       </c>
       <c r="SS6" t="n">
-        <v>347742673</v>
+        <v>347735972</v>
       </c>
       <c r="ST6" t="n">
-        <v>293711262</v>
+        <v>293716521</v>
       </c>
       <c r="SU6" t="n">
-        <v>305968057</v>
+        <v>305979200</v>
       </c>
       <c r="SV6" t="n">
-        <v>319524708</v>
+        <v>319521067</v>
       </c>
       <c r="SW6" t="n">
-        <v>305163580</v>
+        <v>305164813</v>
       </c>
       <c r="SX6" t="n">
         <v>311982371</v>
+      </c>
+      <c r="SY6" t="n">
+        <v>287566590</v>
+      </c>
+      <c r="SZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -12278,40 +12518,76 @@
         <v>231385476</v>
       </c>
       <c r="SM7" t="n">
-        <v>212899581</v>
+        <v>213277688</v>
       </c>
       <c r="SN7" t="n">
-        <v>225930634</v>
+        <v>226069565</v>
       </c>
       <c r="SO7" t="n">
-        <v>266504580</v>
+        <v>267001993</v>
       </c>
       <c r="SP7" t="n">
-        <v>239108337</v>
+        <v>239528553</v>
       </c>
       <c r="SQ7" t="n">
-        <v>215945493</v>
+        <v>216453372</v>
       </c>
       <c r="SR7" t="n">
-        <v>241218469</v>
+        <v>241757397</v>
       </c>
       <c r="SS7" t="n">
-        <v>240588273</v>
+        <v>240759774</v>
       </c>
       <c r="ST7" t="n">
-        <v>245631843</v>
+        <v>245833701</v>
       </c>
       <c r="SU7" t="n">
-        <v>243341537</v>
+        <v>243351180</v>
       </c>
       <c r="SV7" t="n">
-        <v>241066969</v>
+        <v>241095830</v>
       </c>
       <c r="SW7" t="n">
-        <v>258285761</v>
+        <v>258277339</v>
       </c>
       <c r="SX7" t="n">
-        <v>256268220</v>
+        <v>258793553</v>
+      </c>
+      <c r="SY7" t="n">
+        <v>259720746</v>
+      </c>
+      <c r="SZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -13841,7 +14117,7 @@
         <v>151944085</v>
       </c>
       <c r="SN8" t="n">
-        <v>166260190</v>
+        <v>166249194</v>
       </c>
       <c r="SO8" t="n">
         <v>194015867</v>
@@ -13853,25 +14129,61 @@
         <v>172171576</v>
       </c>
       <c r="SR8" t="n">
-        <v>171503924</v>
+        <v>171504382</v>
       </c>
       <c r="SS8" t="n">
-        <v>199074565</v>
+        <v>199072312</v>
       </c>
       <c r="ST8" t="n">
         <v>181708870</v>
       </c>
       <c r="SU8" t="n">
-        <v>188920975</v>
+        <v>188902525</v>
       </c>
       <c r="SV8" t="n">
-        <v>195025894</v>
+        <v>195025661</v>
       </c>
       <c r="SW8" t="n">
         <v>196647800</v>
       </c>
       <c r="SX8" t="n">
-        <v>196031806</v>
+        <v>196031764</v>
+      </c>
+      <c r="SY8" t="n">
+        <v>187150671</v>
+      </c>
+      <c r="SZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -15398,40 +15710,76 @@
         <v>67608566</v>
       </c>
       <c r="SM9" t="n">
-        <v>71147458</v>
+        <v>71398181</v>
       </c>
       <c r="SN9" t="n">
-        <v>66855518</v>
+        <v>67235803</v>
       </c>
       <c r="SO9" t="n">
-        <v>79129646</v>
+        <v>79321743</v>
       </c>
       <c r="SP9" t="n">
-        <v>66037365</v>
+        <v>66168894</v>
       </c>
       <c r="SQ9" t="n">
-        <v>78650642</v>
+        <v>78736113</v>
       </c>
       <c r="SR9" t="n">
-        <v>84392583</v>
+        <v>84371807</v>
       </c>
       <c r="SS9" t="n">
-        <v>88440962</v>
+        <v>88436558</v>
       </c>
       <c r="ST9" t="n">
-        <v>87848073</v>
+        <v>88035585</v>
       </c>
       <c r="SU9" t="n">
-        <v>84777562</v>
+        <v>85136082</v>
       </c>
       <c r="SV9" t="n">
-        <v>88062681</v>
+        <v>88301865</v>
       </c>
       <c r="SW9" t="n">
-        <v>83008394</v>
+        <v>83003992</v>
       </c>
       <c r="SX9" t="n">
-        <v>91839729</v>
+        <v>91835207</v>
+      </c>
+      <c r="SY9" t="n">
+        <v>93727736</v>
+      </c>
+      <c r="SZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -16958,19 +17306,19 @@
         <v>135123065</v>
       </c>
       <c r="SM10" t="n">
-        <v>131924381</v>
+        <v>131936654</v>
       </c>
       <c r="SN10" t="n">
-        <v>132897811</v>
+        <v>132872264</v>
       </c>
       <c r="SO10" t="n">
-        <v>162382243</v>
+        <v>162368622</v>
       </c>
       <c r="SP10" t="n">
         <v>152813375</v>
       </c>
       <c r="SQ10" t="n">
-        <v>134300089</v>
+        <v>134279312</v>
       </c>
       <c r="SR10" t="n">
         <v>141989042</v>
@@ -16982,16 +17330,52 @@
         <v>116348605</v>
       </c>
       <c r="SU10" t="n">
-        <v>143138430</v>
+        <v>143115014</v>
       </c>
       <c r="SV10" t="n">
-        <v>143404788</v>
+        <v>143400038</v>
       </c>
       <c r="SW10" t="n">
-        <v>162914558</v>
+        <v>162914606</v>
       </c>
       <c r="SX10" t="n">
         <v>161634838</v>
+      </c>
+      <c r="SY10" t="n">
+        <v>137296591</v>
+      </c>
+      <c r="SZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -18518,40 +18902,76 @@
         <v>154427272</v>
       </c>
       <c r="SM11" t="n">
-        <v>161897433</v>
+        <v>162474645</v>
       </c>
       <c r="SN11" t="n">
-        <v>172498782</v>
+        <v>173172039</v>
       </c>
       <c r="SO11" t="n">
-        <v>194077122</v>
+        <v>194731038</v>
       </c>
       <c r="SP11" t="n">
-        <v>180562222</v>
+        <v>181192508</v>
       </c>
       <c r="SQ11" t="n">
-        <v>152807969</v>
+        <v>153454103</v>
       </c>
       <c r="SR11" t="n">
-        <v>174500021</v>
+        <v>175027402</v>
       </c>
       <c r="SS11" t="n">
-        <v>169365074</v>
+        <v>169878940</v>
       </c>
       <c r="ST11" t="n">
-        <v>169711827</v>
+        <v>170274318</v>
       </c>
       <c r="SU11" t="n">
-        <v>146184218</v>
+        <v>146322749</v>
       </c>
       <c r="SV11" t="n">
-        <v>179161008</v>
+        <v>179440312</v>
       </c>
       <c r="SW11" t="n">
-        <v>223469050</v>
+        <v>223377313</v>
       </c>
       <c r="SX11" t="n">
-        <v>235313900</v>
+        <v>235254049</v>
+      </c>
+      <c r="SY11" t="n">
+        <v>240053195</v>
+      </c>
+      <c r="SZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -20113,6 +20533,42 @@
       <c r="SX12" t="n">
         <v>351541</v>
       </c>
+      <c r="SY12" t="n">
+        <v>317002</v>
+      </c>
+      <c r="SZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -21638,40 +22094,76 @@
         <v>12085048</v>
       </c>
       <c r="SM13" t="n">
-        <v>21661113</v>
+        <v>21891306</v>
       </c>
       <c r="SN13" t="n">
-        <v>21217397</v>
+        <v>22285000</v>
       </c>
       <c r="SO13" t="n">
-        <v>18223122</v>
+        <v>20624127</v>
       </c>
       <c r="SP13" t="n">
-        <v>14913220</v>
+        <v>16703070</v>
       </c>
       <c r="SQ13" t="n">
-        <v>16435363</v>
+        <v>18478064</v>
       </c>
       <c r="SR13" t="n">
-        <v>21953759</v>
+        <v>22902921</v>
       </c>
       <c r="SS13" t="n">
-        <v>19767452</v>
+        <v>20471292</v>
       </c>
       <c r="ST13" t="n">
-        <v>21932599</v>
+        <v>22642237</v>
       </c>
       <c r="SU13" t="n">
-        <v>27953281</v>
+        <v>28985419</v>
       </c>
       <c r="SV13" t="n">
-        <v>12533723</v>
+        <v>12838737</v>
       </c>
       <c r="SW13" t="n">
         <v>21802256</v>
       </c>
       <c r="SX13" t="n">
-        <v>27827091</v>
+        <v>27823392</v>
+      </c>
+      <c r="SY13" t="n">
+        <v>34605763</v>
+      </c>
+      <c r="SZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23204,7 +23696,7 @@
         <v>80769669</v>
       </c>
       <c r="SO14" t="n">
-        <v>106085314</v>
+        <v>105922914</v>
       </c>
       <c r="SP14" t="n">
         <v>99618342</v>
@@ -23213,13 +23705,13 @@
         <v>92937948</v>
       </c>
       <c r="SR14" t="n">
-        <v>103119679</v>
+        <v>103114263</v>
       </c>
       <c r="SS14" t="n">
-        <v>109172792</v>
+        <v>109188739</v>
       </c>
       <c r="ST14" t="n">
-        <v>97793402</v>
+        <v>97765293</v>
       </c>
       <c r="SU14" t="n">
         <v>113516958</v>
@@ -23231,7 +23723,43 @@
         <v>115455633</v>
       </c>
       <c r="SX14" t="n">
-        <v>112806151</v>
+        <v>112799885</v>
+      </c>
+      <c r="SY14" t="n">
+        <v>103676943</v>
+      </c>
+      <c r="SZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -24758,40 +25286,76 @@
         <v>87404952</v>
       </c>
       <c r="SM15" t="n">
-        <v>80287319</v>
+        <v>81067037</v>
       </c>
       <c r="SN15" t="n">
-        <v>87888088</v>
+        <v>88347839</v>
       </c>
       <c r="SO15" t="n">
-        <v>109951685</v>
+        <v>109415233</v>
       </c>
       <c r="SP15" t="n">
-        <v>95850990</v>
+        <v>96231297</v>
       </c>
       <c r="SQ15" t="n">
-        <v>92707161</v>
+        <v>92907453</v>
       </c>
       <c r="SR15" t="n">
-        <v>100409910</v>
+        <v>101270010</v>
       </c>
       <c r="SS15" t="n">
-        <v>108244327</v>
+        <v>109076682</v>
       </c>
       <c r="ST15" t="n">
-        <v>95789666</v>
+        <v>96333157</v>
       </c>
       <c r="SU15" t="n">
-        <v>97796777</v>
+        <v>98057552</v>
       </c>
       <c r="SV15" t="n">
-        <v>99296709</v>
+        <v>99331545</v>
       </c>
       <c r="SW15" t="n">
-        <v>115047437</v>
+        <v>115057562</v>
       </c>
       <c r="SX15" t="n">
-        <v>104550058</v>
+        <v>105130842</v>
+      </c>
+      <c r="SY15" t="n">
+        <v>104051951</v>
+      </c>
+      <c r="SZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -26318,40 +26882,76 @@
         <v>83526248</v>
       </c>
       <c r="SM16" t="n">
-        <v>86806167</v>
+        <v>86663980</v>
       </c>
       <c r="SN16" t="n">
-        <v>100759272</v>
+        <v>100911457</v>
       </c>
       <c r="SO16" t="n">
         <v>124785760</v>
       </c>
       <c r="SP16" t="n">
-        <v>103305067</v>
+        <v>103306604</v>
       </c>
       <c r="SQ16" t="n">
-        <v>112613851</v>
+        <v>112607228</v>
       </c>
       <c r="SR16" t="n">
-        <v>128972112</v>
+        <v>129280016</v>
       </c>
       <c r="SS16" t="n">
-        <v>128001929</v>
+        <v>128035496</v>
       </c>
       <c r="ST16" t="n">
-        <v>109304484</v>
+        <v>109260522</v>
       </c>
       <c r="SU16" t="n">
-        <v>142284176</v>
+        <v>142281969</v>
       </c>
       <c r="SV16" t="n">
-        <v>134267423</v>
+        <v>134156799</v>
       </c>
       <c r="SW16" t="n">
         <v>147379199</v>
       </c>
       <c r="SX16" t="n">
-        <v>146736140</v>
+        <v>146734360</v>
+      </c>
+      <c r="SY16" t="n">
+        <v>130406800</v>
+      </c>
+      <c r="SZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -27878,40 +28478,76 @@
         <v>157344710</v>
       </c>
       <c r="SM17" t="n">
-        <v>141429508</v>
+        <v>143134496</v>
       </c>
       <c r="SN17" t="n">
-        <v>153632457</v>
+        <v>155205553</v>
       </c>
       <c r="SO17" t="n">
-        <v>188662547</v>
+        <v>189241232</v>
       </c>
       <c r="SP17" t="n">
-        <v>166164261</v>
+        <v>168552412</v>
       </c>
       <c r="SQ17" t="n">
-        <v>146587440</v>
+        <v>147150501</v>
       </c>
       <c r="SR17" t="n">
-        <v>150387093</v>
+        <v>149883606</v>
       </c>
       <c r="SS17" t="n">
-        <v>176614417</v>
+        <v>175891767</v>
       </c>
       <c r="ST17" t="n">
-        <v>206740552</v>
+        <v>207407369</v>
       </c>
       <c r="SU17" t="n">
-        <v>186896773</v>
+        <v>187037820</v>
       </c>
       <c r="SV17" t="n">
-        <v>202642578</v>
+        <v>202682607</v>
       </c>
       <c r="SW17" t="n">
-        <v>196725266</v>
+        <v>196750078</v>
       </c>
       <c r="SX17" t="n">
-        <v>231090173</v>
+        <v>231440754</v>
+      </c>
+      <c r="SY17" t="n">
+        <v>235056797</v>
+      </c>
+      <c r="SZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29456,7 +30092,7 @@
         <v>5172661</v>
       </c>
       <c r="SS18" t="n">
-        <v>4963439</v>
+        <v>4961811</v>
       </c>
       <c r="ST18" t="n">
         <v>4946463</v>
@@ -29472,6 +30108,42 @@
       </c>
       <c r="SX18" t="n">
         <v>6203185</v>
+      </c>
+      <c r="SY18" t="n">
+        <v>4506936</v>
+      </c>
+      <c r="SZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -30998,19 +31670,19 @@
         <v>13437779</v>
       </c>
       <c r="SM19" t="n">
-        <v>14476326</v>
+        <v>14476325</v>
       </c>
       <c r="SN19" t="n">
-        <v>16366482</v>
+        <v>16398276</v>
       </c>
       <c r="SO19" t="n">
-        <v>20829797</v>
+        <v>20831091</v>
       </c>
       <c r="SP19" t="n">
         <v>16779791</v>
       </c>
       <c r="SQ19" t="n">
-        <v>7950575</v>
+        <v>7960797</v>
       </c>
       <c r="SR19" t="n">
         <v>10874413</v>
@@ -31019,19 +31691,55 @@
         <v>13192017</v>
       </c>
       <c r="ST19" t="n">
-        <v>21026302</v>
+        <v>21043013</v>
       </c>
       <c r="SU19" t="n">
         <v>20963069</v>
       </c>
       <c r="SV19" t="n">
-        <v>19043083</v>
+        <v>19043803</v>
       </c>
       <c r="SW19" t="n">
         <v>15462987</v>
       </c>
       <c r="SX19" t="n">
-        <v>14624107</v>
+        <v>14773209</v>
+      </c>
+      <c r="SY19" t="n">
+        <v>16346902</v>
+      </c>
+      <c r="SZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -32593,6 +33301,42 @@
       <c r="SX20" t="n">
         <v>1003818</v>
       </c>
+      <c r="SY20" t="n">
+        <v>947711</v>
+      </c>
+      <c r="SZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -34118,7 +34862,7 @@
         <v>966916</v>
       </c>
       <c r="SM21" t="n">
-        <v>1398651</v>
+        <v>1398943</v>
       </c>
       <c r="SN21" t="n">
         <v>1136071</v>
@@ -34152,6 +34896,42 @@
       </c>
       <c r="SX21" t="n">
         <v>1257754</v>
+      </c>
+      <c r="SY21" t="n">
+        <v>1366337</v>
+      </c>
+      <c r="SZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -35681,7 +36461,7 @@
         <v>5175541</v>
       </c>
       <c r="SN22" t="n">
-        <v>3565373</v>
+        <v>3547747</v>
       </c>
       <c r="SO22" t="n">
         <v>3057857</v>
@@ -35712,6 +36492,42 @@
       </c>
       <c r="SX22" t="n">
         <v>3365969</v>
+      </c>
+      <c r="SY22" t="n">
+        <v>2468711</v>
+      </c>
+      <c r="SZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -37238,31 +38054,31 @@
         <v>7844160</v>
       </c>
       <c r="SM23" t="n">
-        <v>9065682</v>
+        <v>9067092</v>
       </c>
       <c r="SN23" t="n">
-        <v>10619670</v>
+        <v>10620532</v>
       </c>
       <c r="SO23" t="n">
-        <v>10423652</v>
+        <v>10434641</v>
       </c>
       <c r="SP23" t="n">
-        <v>8642696</v>
+        <v>8651292</v>
       </c>
       <c r="SQ23" t="n">
-        <v>7662573</v>
+        <v>7665621</v>
       </c>
       <c r="SR23" t="n">
         <v>6768440</v>
       </c>
       <c r="SS23" t="n">
-        <v>5627198</v>
+        <v>5632032</v>
       </c>
       <c r="ST23" t="n">
-        <v>9880442</v>
+        <v>9880968</v>
       </c>
       <c r="SU23" t="n">
-        <v>9996495</v>
+        <v>9993131</v>
       </c>
       <c r="SV23" t="n">
         <v>11190096</v>
@@ -37271,7 +38087,43 @@
         <v>8304863</v>
       </c>
       <c r="SX23" t="n">
-        <v>7174569</v>
+        <v>7174634</v>
+      </c>
+      <c r="SY23" t="n">
+        <v>9282555</v>
+      </c>
+      <c r="SZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="TJ23" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/158/MOF/TRADE/COUN/ASEAN.xlsx
+++ b/data/158/MOF/TRADE/COUN/ASEAN.xlsx
@@ -4577,7 +4577,7 @@
         <v>994171928</v>
       </c>
       <c r="SZ2" t="n">
-        <v>0</v>
+        <v>1105800196</v>
       </c>
       <c r="TA2" t="n">
         <v>0</v>
@@ -6170,10 +6170,10 @@
         <v>1217557204</v>
       </c>
       <c r="SY3" t="n">
-        <v>1256088083</v>
+        <v>1258230542</v>
       </c>
       <c r="SZ3" t="n">
-        <v>0</v>
+        <v>1194642413</v>
       </c>
       <c r="TA3" t="n">
         <v>0</v>
@@ -7769,7 +7769,7 @@
         <v>139833973</v>
       </c>
       <c r="SZ4" t="n">
-        <v>0</v>
+        <v>178141853</v>
       </c>
       <c r="TA4" t="n">
         <v>0</v>
@@ -9362,10 +9362,10 @@
         <v>244073810</v>
       </c>
       <c r="SY5" t="n">
-        <v>261876101</v>
+        <v>262844747</v>
       </c>
       <c r="SZ5" t="n">
-        <v>0</v>
+        <v>217086426</v>
       </c>
       <c r="TA5" t="n">
         <v>0</v>
@@ -10961,7 +10961,7 @@
         <v>287566590</v>
       </c>
       <c r="SZ6" t="n">
-        <v>0</v>
+        <v>325739879</v>
       </c>
       <c r="TA6" t="n">
         <v>0</v>
@@ -12554,10 +12554,10 @@
         <v>258793553</v>
       </c>
       <c r="SY7" t="n">
-        <v>259720746</v>
+        <v>259621672</v>
       </c>
       <c r="SZ7" t="n">
-        <v>0</v>
+        <v>265186128</v>
       </c>
       <c r="TA7" t="n">
         <v>0</v>
@@ -14153,7 +14153,7 @@
         <v>187150671</v>
       </c>
       <c r="SZ8" t="n">
-        <v>0</v>
+        <v>183564370</v>
       </c>
       <c r="TA8" t="n">
         <v>0</v>
@@ -15746,10 +15746,10 @@
         <v>91835207</v>
       </c>
       <c r="SY9" t="n">
-        <v>93727736</v>
+        <v>93725228</v>
       </c>
       <c r="SZ9" t="n">
-        <v>0</v>
+        <v>86953331</v>
       </c>
       <c r="TA9" t="n">
         <v>0</v>
@@ -17345,7 +17345,7 @@
         <v>137296591</v>
       </c>
       <c r="SZ10" t="n">
-        <v>0</v>
+        <v>153244705</v>
       </c>
       <c r="TA10" t="n">
         <v>0</v>
@@ -18938,10 +18938,10 @@
         <v>235254049</v>
       </c>
       <c r="SY11" t="n">
-        <v>240053195</v>
+        <v>240179479</v>
       </c>
       <c r="SZ11" t="n">
-        <v>0</v>
+        <v>223643513</v>
       </c>
       <c r="TA11" t="n">
         <v>0</v>
@@ -20537,7 +20537,7 @@
         <v>317002</v>
       </c>
       <c r="SZ12" t="n">
-        <v>0</v>
+        <v>376010</v>
       </c>
       <c r="TA12" t="n">
         <v>0</v>
@@ -22130,10 +22130,10 @@
         <v>27823392</v>
       </c>
       <c r="SY13" t="n">
-        <v>34605763</v>
+        <v>34686925</v>
       </c>
       <c r="SZ13" t="n">
-        <v>0</v>
+        <v>30388026</v>
       </c>
       <c r="TA13" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         <v>103676943</v>
       </c>
       <c r="SZ14" t="n">
-        <v>0</v>
+        <v>114538599</v>
       </c>
       <c r="TA14" t="n">
         <v>0</v>
@@ -25322,10 +25322,10 @@
         <v>105130842</v>
       </c>
       <c r="SY15" t="n">
-        <v>104051951</v>
+        <v>104440052</v>
       </c>
       <c r="SZ15" t="n">
-        <v>0</v>
+        <v>103063796</v>
       </c>
       <c r="TA15" t="n">
         <v>0</v>
@@ -26921,7 +26921,7 @@
         <v>130406800</v>
       </c>
       <c r="SZ16" t="n">
-        <v>0</v>
+        <v>140129020</v>
       </c>
       <c r="TA16" t="n">
         <v>0</v>
@@ -28514,10 +28514,10 @@
         <v>231440754</v>
       </c>
       <c r="SY17" t="n">
-        <v>235056797</v>
+        <v>235468601</v>
       </c>
       <c r="SZ17" t="n">
-        <v>0</v>
+        <v>237683139</v>
       </c>
       <c r="TA17" t="n">
         <v>0</v>
@@ -30113,7 +30113,7 @@
         <v>4506936</v>
       </c>
       <c r="SZ18" t="n">
-        <v>0</v>
+        <v>5525037</v>
       </c>
       <c r="TA18" t="n">
         <v>0</v>
@@ -31706,10 +31706,10 @@
         <v>14773209</v>
       </c>
       <c r="SY19" t="n">
-        <v>16346902</v>
+        <v>16573434</v>
       </c>
       <c r="SZ19" t="n">
-        <v>0</v>
+        <v>16875439</v>
       </c>
       <c r="TA19" t="n">
         <v>0</v>
@@ -33305,7 +33305,7 @@
         <v>947711</v>
       </c>
       <c r="SZ20" t="n">
-        <v>0</v>
+        <v>851160</v>
       </c>
       <c r="TA20" t="n">
         <v>0</v>
@@ -34901,7 +34901,7 @@
         <v>1366337</v>
       </c>
       <c r="SZ21" t="n">
-        <v>0</v>
+        <v>1870886</v>
       </c>
       <c r="TA21" t="n">
         <v>0</v>
@@ -36497,7 +36497,7 @@
         <v>2468711</v>
       </c>
       <c r="SZ22" t="n">
-        <v>0</v>
+        <v>3689563</v>
       </c>
       <c r="TA22" t="n">
         <v>0</v>
@@ -38090,10 +38090,10 @@
         <v>7174634</v>
       </c>
       <c r="SY23" t="n">
-        <v>9282555</v>
+        <v>9324067</v>
       </c>
       <c r="SZ23" t="n">
-        <v>0</v>
+        <v>11891729</v>
       </c>
       <c r="TA23" t="n">
         <v>0</v>
